--- a/data/income_statement/2digits/size/46_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/46_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>46-Wholesale trade, except of motor vehicles and motorcycles</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>46-Wholesale trade, except of motor vehicles and motorcycles</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,2078 +841,2346 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>103931159.09374</v>
+        <v>103724502.31467</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>129579125.4583</v>
+        <v>130173912.2417</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>170376869.11817</v>
+        <v>170646218.68617</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>195999334.76188</v>
+        <v>198158457.89586</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>227458453.33509</v>
+        <v>228931479.85401</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>266349603.26847</v>
+        <v>268133828.15065</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>306905381.7649</v>
+        <v>317449402.77887</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>341001567.91577</v>
+        <v>347105379.53892</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>434206125.3356</v>
+        <v>436067377.89421</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>535747516.89502</v>
+        <v>535430936.85783</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>599351525.82313</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>610772864.85825</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>818399329.074</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>86263990.43852</v>
+        <v>86017917.35286</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>108130109.40288</v>
+        <v>108547820.35072</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>143479298.91715</v>
+        <v>143680945.21079</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>160578405.25546</v>
+        <v>161522233.42042</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>189218431.82529</v>
+        <v>190006049.01692</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>219394947.21985</v>
+        <v>220490538.30816</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>254449142.90392</v>
+        <v>263763095.07621</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>283021407.77516</v>
+        <v>287748577.5995501</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>351014762.47369</v>
+        <v>352433844.73857</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>426995701.92324</v>
+        <v>425935321.37266</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>467742886.06455</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>478694518.96514</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>669276121.9680001</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>15811083.12986</v>
+        <v>15847800.13285</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>19084984.82094</v>
+        <v>19259137.60645</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>24140401.85637</v>
+        <v>24217810.74049</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>32295432.57675</v>
+        <v>33475409.4799</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>34506830.95538001</v>
+        <v>35196013.24616</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>42706624.1066</v>
+        <v>43353818.37707001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>47514623.26396</v>
+        <v>48600574.22312</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>52269192.57736</v>
+        <v>53558057.70048</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>76773280.69949999</v>
+        <v>77189137.55372</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>99537301.46172</v>
+        <v>100429247.09657</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>121205435.03189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>121772915.01536</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>137504697.059</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>1856085.52536</v>
+        <v>1858784.82896</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>2364031.23448</v>
+        <v>2366954.28453</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>2757168.344649999</v>
+        <v>2747462.73489</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>3125496.92967</v>
+        <v>3160814.99554</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>3733190.55442</v>
+        <v>3729417.59093</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>4248031.94202</v>
+        <v>4289471.46542</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>4941615.59702</v>
+        <v>5085733.47954</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>5710967.56325</v>
+        <v>5798744.23889</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>6418082.162409999</v>
+        <v>6444395.60192</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>9214513.510060001</v>
+        <v>9066368.388600001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>10403204.72669</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>10305430.87775</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>11618510.047</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>3347608.78942</v>
+        <v>3389256.63805</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>3728766.55654</v>
+        <v>3843583.037250001</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>4335594.718940001</v>
+        <v>4417636.149530001</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>4634857.91953</v>
+        <v>4771158.227049999</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>5732399.67056</v>
+        <v>5868396.131270001</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>7560401.50593</v>
+        <v>7103159.01455</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>7725450.694830001</v>
+        <v>7993158.40325</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>11066884.76135</v>
+        <v>11514395.8256</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>16032015.47669</v>
+        <v>16439588.88805</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>18375532.12237</v>
+        <v>18809707.87161</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>19210217.2025</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>19440272.84619</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>19836958.535</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>1351212.17854</v>
+        <v>1343172.52911</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1420668.33139</v>
+        <v>1441587.67784</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>1735347.94267</v>
+        <v>1745395.22165</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>1908620.14827</v>
+        <v>1951779.43614</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>2150974.22802</v>
+        <v>2208976.76266</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>3588783.34649</v>
+        <v>2993176.74525</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>3656973.45358</v>
+        <v>3756162.0544</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>6583365.380720001</v>
+        <v>6660883.672440001</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>11087437.99271</v>
+        <v>11316656.16889</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>8866261.6975</v>
+        <v>9156776.646709999</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>7983475.32268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>8025708.99355</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>9446252.706</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1745467.81127</v>
+        <v>1782960.26918</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>2015835.51281</v>
+        <v>2085718.58053</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>2308078.51154</v>
+        <v>2376539.37029</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>2352573.8716</v>
+        <v>2440754.46381</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>3137204.23832</v>
+        <v>3209110.51929</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>3334628.628109999</v>
+        <v>3452423.60293</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>3376289.75436</v>
+        <v>3537775.60972</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>3695069.84674</v>
+        <v>4003165.12378</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>3909690.5424</v>
+        <v>4076137.12954</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>7584207.622569999</v>
+        <v>7704434.007160001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>9318445.260099998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>9470669.31037</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>8268151.617</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>250928.79961</v>
+        <v>263123.83976</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>292262.71234</v>
+        <v>316276.77888</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>292168.26473</v>
+        <v>295701.55759</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>373663.89966</v>
+        <v>378624.3270999999</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>444221.20422</v>
+        <v>450308.84932</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>636989.53133</v>
+        <v>657558.66637</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>692187.4868900001</v>
+        <v>699220.73913</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>788449.5338900001</v>
+        <v>850347.02938</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>1034886.94158</v>
+        <v>1046795.58962</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1925062.8023</v>
+        <v>1948497.21774</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1908296.61972</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1943894.54227</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>2122554.212</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>100583550.30432</v>
+        <v>100335245.67662</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>125850358.90176</v>
+        <v>126330329.20445</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>166041274.39923</v>
+        <v>166228582.53664</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>191364476.84235</v>
+        <v>193387299.66881</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>221726053.66453</v>
+        <v>223063083.72274</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>258789201.76254</v>
+        <v>261030669.1361</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>299179931.07007</v>
+        <v>309456244.37562</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>329934683.15442</v>
+        <v>335590983.71332</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>418174109.85891</v>
+        <v>419627789.00616</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>517371984.7726499</v>
+        <v>516621228.9862199</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>580141308.62063</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>591332592.01206</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>798562370.539</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>89821360.2145</v>
+        <v>89642129.13516998</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>113218269.6793</v>
+        <v>113584237.69328</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>149744555.86483</v>
+        <v>149779194.71417</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>173413163.97498</v>
+        <v>175233088.17876</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>199854468.80708</v>
+        <v>200961320.54252</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>233217974.10853</v>
+        <v>235097861.85022</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>270009499.39036</v>
+        <v>279747123.14597</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>298585625.4959</v>
+        <v>303100846.47087</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>378572661.24067</v>
+        <v>379717022.63349</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>465132300.54963</v>
+        <v>464820870.12811</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>523087440.10078</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>534922693.7183301</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>728980969.1799999</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>4745636.331069999</v>
+        <v>4634226.786060001</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>5468194.73343</v>
+        <v>5552231.90326</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>8353400.42905</v>
+        <v>8237289.43405</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>12782221.89014</v>
+        <v>12739471.46367</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>11662392.00229</v>
+        <v>11774451.87812</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>11335573.83581</v>
+        <v>11295298.35156</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>14237412.86358</v>
+        <v>14354518.53478</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>18627348.2815</v>
+        <v>19067781.05136</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>33695466.04802</v>
+        <v>33654187.6315</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>25896033.55451</v>
+        <v>25486190.47303</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>33152941.94564</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>32959335.40978</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>44036509.581</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>83558560.68592</v>
+        <v>83485351.11037</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>105759208.72065</v>
+        <v>106086414.63023</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>138670673.40285</v>
+        <v>138878445.15967</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>157662496.99586</v>
+        <v>158396511.83719</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>184387115.14764</v>
+        <v>185348539.78564</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>217957834.28705</v>
+        <v>219761296.16731</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>251453651.80451</v>
+        <v>260846732.70379</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>275455046.25598</v>
+        <v>278933591.51455</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>336835119.40939</v>
+        <v>337839125.79299</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>430514745.80883</v>
+        <v>430518220.4956799</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>479646564.33379</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>491700553.39361</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>652887384.854</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>1201470.18686</v>
+        <v>1183959.20846</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1592764.54127</v>
+        <v>1534004.99115</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>2165285.83113</v>
+        <v>2112017.47154</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2452273.84681</v>
+        <v>3554644.86221</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>2926828.00718</v>
+        <v>2946715.45223</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>3114413.8875</v>
+        <v>3211877.02874</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>3473589.70576</v>
+        <v>3608758.09512</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>3984895.49255</v>
+        <v>4155066.888900001</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>6851787.404279999</v>
+        <v>7018546.903270001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>7470928.09734</v>
+        <v>7442734.34541</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>8717812.37975</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>8617710.498059999</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>30055636.893</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>315693.01065</v>
+        <v>338592.03028</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>398101.68395</v>
+        <v>411586.16864</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>555196.2018</v>
+        <v>551442.64891</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>516171.24217</v>
+        <v>542460.01569</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>878133.64997</v>
+        <v>891613.4265300001</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>810152.09817</v>
+        <v>829390.3026099999</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>844845.01651</v>
+        <v>937113.81228</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>518335.46587</v>
+        <v>944407.0160600001</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>1190288.37898</v>
+        <v>1205162.30573</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>1250593.08895</v>
+        <v>1373724.81399</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>1570121.4416</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1645094.41688</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>2001437.852</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>10762190.08982</v>
+        <v>10693116.54145</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>12632089.22246</v>
+        <v>12746091.51117</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>16296718.5344</v>
+        <v>16449387.82247</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>17951312.86737</v>
+        <v>18154211.49005</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>21871584.85745</v>
+        <v>22101763.18022</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>25571227.65401</v>
+        <v>25932807.28588</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>29170431.67971</v>
+        <v>29709121.22965</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>31349057.65852</v>
+        <v>32490137.24245</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>39601448.61824</v>
+        <v>39910766.37266999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>52239684.22302</v>
+        <v>51800358.85811</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>57053868.51985</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>56409898.29373</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>69581401.359</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>7669473.451549999</v>
+        <v>7534527.973530001</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>9027680.79868</v>
+        <v>9004196.103430001</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>11102488.06179</v>
+        <v>11042653.88679</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>12844322.17271</v>
+        <v>12846128.81421</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>15163858.44888</v>
+        <v>15255043.49553</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>17463464.35773</v>
+        <v>17541691.22236</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>19446081.18987</v>
+        <v>19698391.79279</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>21657775.57173</v>
+        <v>22202025.14286</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>25776021.74203</v>
+        <v>25531275.27812</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>31407629.42079</v>
+        <v>30973745.5855</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>36881805.00139</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>36175598.77467</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>41355320.359</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>29412.94948</v>
+        <v>32531.45626</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>30871.96252</v>
+        <v>34565.22832</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>37396.92524</v>
+        <v>33993.29918</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>31194.58335</v>
+        <v>34045.26201</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>44351.16878</v>
+        <v>43109.7693</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>62109.33624</v>
+        <v>67683.52959999999</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>42136.13005</v>
+        <v>46140.00809</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>35452.32649</v>
+        <v>35224.2987</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>65960.10801000001</v>
+        <v>64835.28875000001</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>147605.47564</v>
+        <v>126197.93588</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>187964.54579</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>159647.47727</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>216639.961</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>4144716.62879</v>
+        <v>4153930.7704</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>4933361.87565</v>
+        <v>5013171.585010001</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>5916054.023700001</v>
+        <v>6005132.40942</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>6805113.354790001</v>
+        <v>6948754.86837</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>8441172.939510001</v>
+        <v>8657339.28709</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>9551581.87283</v>
+        <v>9727455.002099998</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>10455329.55917</v>
+        <v>10789254.26485</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>11509844.44684</v>
+        <v>12038385.97154</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>13704744.3513</v>
+        <v>13838281.21821</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>18958045.0591</v>
+        <v>18996995.24497</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>22107792.27561</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>21993981.5415</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>24730215.72</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>3495343.87328</v>
+        <v>3348065.74687</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>4063446.96051</v>
+        <v>3956459.2901</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>5149037.11285</v>
+        <v>5003528.17819</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>6008014.234569999</v>
+        <v>5863328.68383</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>6678334.34059</v>
+        <v>6554594.439139999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>7849773.148659999</v>
+        <v>7746552.69066</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>8948615.500650002</v>
+        <v>8862997.519850001</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>10112478.7984</v>
+        <v>10128414.87262</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>12005317.28272</v>
+        <v>11628158.77116</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>12301978.88605</v>
+        <v>11850552.40465</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>14586048.17999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>14021969.7559</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>16408464.678</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>3092716.63827</v>
+        <v>3158588.56792</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>3604408.42378</v>
+        <v>3741895.40774</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>5194230.472610001</v>
+        <v>5406733.93568</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>5106990.69466</v>
+        <v>5308082.67584</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>6707726.40857</v>
+        <v>6846719.68469</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>8107763.296279999</v>
+        <v>8391116.063520001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>9724350.489840001</v>
+        <v>10010729.43686</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>9691282.086790001</v>
+        <v>10288112.09959</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>13825426.87621</v>
+        <v>14379491.09455</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>20832054.80223</v>
+        <v>20826613.27261</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>20172063.51846</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>20234299.51906</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>28226081</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>2684358.12472</v>
+        <v>2716016.61791</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>2200933.10071</v>
+        <v>2235700.17875</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>3138138.02255</v>
+        <v>3193569.22375</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>2429432.1212</v>
+        <v>2539069.64099</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>4060150.45581</v>
+        <v>4614498.22627</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>4752534.748229999</v>
+        <v>5147057.40686</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>7464657.243100001</v>
+        <v>7951638.06367</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>6350922.40549</v>
+        <v>7058456.62325</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>7532679.664100001</v>
+        <v>8709590.65741</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>31710434.7476</v>
+        <v>32934057.04067</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>16774978.73361</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>18377966.75696</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>28886762.177</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>51644.16445</v>
+        <v>35285.82847</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>68030.57123</v>
+        <v>33394.15384</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>75353.62799000001</v>
+        <v>34908.3246</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>70301.33387</v>
+        <v>35342.25688</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>99222.39201000001</v>
+        <v>79911.88013999999</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>93967.40243999999</v>
+        <v>73935.29539</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>93507.50665000001</v>
+        <v>34638.24798</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>112534.71498</v>
+        <v>132080.86706</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>105851.44512</v>
+        <v>169248.4196</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>387513.44606</v>
+        <v>76562.30104999999</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>221708.76787</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>96318.34998</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>105166.658</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>14618.01646</v>
+        <v>13506.12012</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>4750.8651</v>
+        <v>6023.51705</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>16724.87649</v>
+        <v>11034.19022</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>26084.47418</v>
+        <v>32965.83659</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>24621.9136</v>
+        <v>81474.36321000001</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>17677.78001</v>
+        <v>19123.24035</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>25879.47765</v>
+        <v>121595.41233</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>47800.86235</v>
+        <v>46366.65429</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>46446.90449</v>
+        <v>53943.52659</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>205102.06404</v>
+        <v>87744.80893000001</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>215375.61091</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>70940.60095000001</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>107118.341</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>178252.43549</v>
+        <v>173495.67301</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>157606.39478</v>
+        <v>159191.17752</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>194048.25995</v>
+        <v>200048.8123</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>229748.08329</v>
+        <v>230022.44132</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>273906.61288</v>
+        <v>289205.79611</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>335300.91352</v>
+        <v>354176.80938</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>394513.37872</v>
+        <v>472090.15422</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>409396.46714</v>
+        <v>435828.89285</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>561786.10833</v>
+        <v>604255.84951</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1224959.02045</v>
+        <v>1245391.30741</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>1596662.76428</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>1568229.21327</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1342236.697</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>65540.51542</v>
+        <v>64997.45965</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>63722.67197</v>
+        <v>62882.03808000001</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>67979.25921</v>
+        <v>65262.62669999999</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>66856.2577</v>
+        <v>64099.3965</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>108455.00767</v>
+        <v>112225.0248</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>117322.60408</v>
+        <v>113034.66406</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>105565.91853</v>
+        <v>102061.40839</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>110913.12044</v>
+        <v>110405.71554</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>124062.76722</v>
+        <v>118938.47637</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>224008.27393</v>
+        <v>205842.21441</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>184050.84672</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>177385.40312</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>222339.402</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>59319.64132</v>
+        <v>62266.00889</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>67228.69569999998</v>
+        <v>65239.66801000001</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>67869.72018</v>
+        <v>81900.07143000001</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>63172.95709</v>
+        <v>95564.80368</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>91949.75284999999</v>
+        <v>122133.98221</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>84166.47783999999</v>
+        <v>115810.48272</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>87374.61864</v>
+        <v>120060.44784</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>110813.01658</v>
+        <v>158692.09243</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>150940.18997</v>
+        <v>144263.81335</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>385646.58595</v>
+        <v>225814.1333</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>357895.52679</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>238276.79213</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>280754.818</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>28197.7587</v>
+        <v>22853.67003</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>14279.15416</v>
+        <v>26564.94529</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>58224.72244000001</v>
+        <v>53090.94013</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>27471.88121</v>
+        <v>40026.79084</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>37791.36807</v>
+        <v>76521.70337</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>46640.33668</v>
+        <v>34506.46155</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>62019.45535</v>
+        <v>48286.66018</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>45464.14622</v>
+        <v>41158.48433</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>49119.6965</v>
+        <v>35228.52845000001</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>120779.71781</v>
+        <v>169805.80578</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>215435.71189</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>233838.45773</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>186534.718</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>1920667.00899</v>
+        <v>1992739.68006</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1424631.47732</v>
+        <v>1493512.72375</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>2216226.3658</v>
+        <v>2323718.19599</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1459463.54111</v>
+        <v>1553346.41068</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>2777812.32703</v>
+        <v>3144348.41503</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>3287443.07592</v>
+        <v>3560305.24067</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>5797181.260619999</v>
+        <v>6028062.167039999</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>4573080.48607</v>
+        <v>5106165.80116</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>5454665.8355</v>
+        <v>6592726.46827</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>27225648.6413</v>
+        <v>28663499.62685</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>11934084.14565</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>14051844.48307</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>24610952.034</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>14998.77745</v>
+        <v>13816.21794</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>9848.62566</v>
+        <v>14804.45744</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>6234.141310000001</v>
+        <v>10512.82784</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>8712.210140000001</v>
+        <v>13341.55034</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>48794.55771000001</v>
+        <v>55678.42306</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>67020.53049999999</v>
+        <v>79154.20242999999</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>75208.09165</v>
+        <v>99327.27584</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>79400.35166</v>
+        <v>116861.46371</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>60042.69206999999</v>
+        <v>91402.36133</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>360580.61575</v>
+        <v>386872.09327</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>340682.44249</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>358760.20367</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>247818.76</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>6856.034459999999</v>
+        <v>5387.820369999999</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>2634.58161</v>
+        <v>2304.98653</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>4929.11776</v>
+        <v>4890.29721</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>4890.54139</v>
+        <v>6163.053489999999</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>3527.17013</v>
+        <v>3884.95546</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>5663.246389999999</v>
+        <v>6613.33651</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>9396.532300000001</v>
+        <v>10843.06148</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>8312.876679999999</v>
+        <v>9346.285129999998</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>20168.45295</v>
+        <v>31683.88118</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>48420.75936</v>
+        <v>43980.22129</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>21447.05016</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>20057.10333</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>40333.272</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>344263.77198</v>
+        <v>331668.13937</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>388200.0631799999</v>
+        <v>371782.51124</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>430547.93142</v>
+        <v>408202.93733</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>472730.84122</v>
+        <v>468197.10067</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>594069.3538600001</v>
+        <v>649113.6828799999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>697332.38085</v>
+        <v>790397.6738</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>814011.0029900001</v>
+        <v>914673.2283699999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>853206.3633700002</v>
+        <v>901550.36675</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>959595.57195</v>
+        <v>867899.33276</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>1527775.62295</v>
+        <v>1828544.52838</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>1687635.86685</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>1562316.14971</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1743507.477</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>2558686.37126</v>
+        <v>2564817.63851</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>1820717.64623</v>
+        <v>1926374.65527</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>3047252.55503</v>
+        <v>3167653.39122</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1985885.89988</v>
+        <v>2079270.66317</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>4265792.205290001</v>
+        <v>4696677.024769999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>4327368.988270001</v>
+        <v>4674137.535069999</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>7479745.71842</v>
+        <v>7954326.14688</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>6246423.99763</v>
+        <v>7222407.92843</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>7155095.102600001</v>
+        <v>8534070.362020001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>32522867.28392</v>
+        <v>34239914.41619001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>14577028.84012</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>16442306.43975</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>26854251.133</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>61982.74688000001</v>
+        <v>66226.75868</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>61755.49594</v>
+        <v>71735.74789</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>80283.16992</v>
+        <v>82723.7408</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>74549.71771000001</v>
+        <v>76929.98828999999</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>91340.28327000001</v>
+        <v>89257.88708000001</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>103045.88744</v>
+        <v>100755.69921</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>131711.57532</v>
+        <v>138195.36376</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>142500.91713</v>
+        <v>152097.03624</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>234690.21952</v>
+        <v>233536.59136</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>207082.27212</v>
+        <v>204806.778</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>264832.31279</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>247906.53507</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>349517.969</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>396777.21926</v>
+        <v>345254.09399</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>216050.28188</v>
+        <v>222603.75125</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>274421.64999</v>
+        <v>265098.72375</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>312084.87626</v>
+        <v>320295.98977</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>427996.6230699999</v>
+        <v>452768.45906</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>403108.59059</v>
+        <v>387573.46427</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>612636.5834400001</v>
+        <v>664828.01926</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>693493.7538800001</v>
+        <v>830536.4086099999</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>603924.0454100001</v>
+        <v>629368.6316300001</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>1276648.21382</v>
+        <v>1188269.44226</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>1103098.91806</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>1054303.4499</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>786977.455</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>16665.38782</v>
+        <v>9920.501540000001</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>7121.15148</v>
+        <v>6660.168749999999</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>27374.15249</v>
+        <v>31306.30752</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>10867.63845</v>
+        <v>14910.75276</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>29082.7336</v>
+        <v>31178.81219</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>25357.97527</v>
+        <v>14100.28237</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>43321.91118</v>
+        <v>30059.29241</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>15639.91756</v>
+        <v>29534.86898</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>21149.23937</v>
+        <v>31944.58819</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>46536.687</v>
+        <v>44539.84429</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>44741.94107</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>51442.17515</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>95392.141</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>1910513.6625</v>
+        <v>1984452.68438</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1388953.59068</v>
+        <v>1459444.46086</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>2478141.01342</v>
+        <v>2616808.47662</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1374872.30407</v>
+        <v>1445925.70213</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>3399063.891700001</v>
+        <v>3804549.32926</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>3421895.75984</v>
+        <v>3782795.89696</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>6261618.65664</v>
+        <v>6655873.78592</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>4969501.291139999</v>
+        <v>5756867.97225</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>5845831.9434</v>
+        <v>7151079.892680001</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>29854485.49521</v>
+        <v>31661011.64669</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>12213272.03452</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>14023416.49508</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>21793102.808</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>12796.61425</v>
+        <v>12853.32502</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>9442.582400000001</v>
+        <v>10542.22936</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>9938.20004</v>
+        <v>14369.87437</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>9097.386379999998</v>
+        <v>12359.34614</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>66705.39788</v>
+        <v>74278.0067</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>81624.56681999999</v>
+        <v>96026.93983</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>89643.69918000001</v>
+        <v>111995.2841</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>86134.58448</v>
+        <v>128190.34558</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>72020.30915999999</v>
+        <v>93277.70718000001</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>421432.9421</v>
+        <v>443284.21911</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>340581.0778</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>355131.77185</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>284313.884</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>2978.54666</v>
+        <v>1911.62633</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>4255.165819999999</v>
+        <v>3853.02238</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>7824.708320000001</v>
+        <v>6794.56176</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>5237.21285</v>
+        <v>4275.08626</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>5988.741819999999</v>
+        <v>4681.981</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>5574.736339999999</v>
+        <v>4457.430109999999</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>9358.621810000001</v>
+        <v>9217.866969999999</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>13031.52633</v>
+        <v>10651.20358</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>23719.25033</v>
+        <v>27940.43126</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>52778.34542000001</v>
+        <v>50859.91375000001</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>23026.63939</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>25402.11444</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>58120.714</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>156972.19389</v>
+        <v>144198.64857</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>133139.37803</v>
+        <v>151535.27478</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>169269.66085</v>
+        <v>150551.7064</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>199176.76416</v>
+        <v>204573.79782</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>245614.53395</v>
+        <v>239962.54948</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>286761.47197</v>
+        <v>288427.82232</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>331454.6708499999</v>
+        <v>344156.5344600001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>326122.00711</v>
+        <v>314530.09319</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>353760.09541</v>
+        <v>366922.51972</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>663903.32825</v>
+        <v>647142.5720899999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>587475.91649</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>684703.89826</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>3486826.162</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>1474248.72687</v>
+        <v>1443130.137</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>1214142.0312</v>
+        <v>1238115.3993</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1845874.10887</v>
+        <v>1891993.02922</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>2282958.72916</v>
+        <v>2328596.81535</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>2752410.5308</v>
+        <v>2775823.3958</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>3395522.30024</v>
+        <v>3528322.73424</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>4208943.98569</v>
+        <v>4354926.69233</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>4593581.79792</v>
+        <v>4931842.977469999</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>5739488.79895</v>
+        <v>6030629.06342</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>10371530.03239</v>
+        <v>10152684.187</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>9836614.152930001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>9657596.452720001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>8322230.651</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>1408828.90309</v>
+        <v>1387216.00195</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>1134277.95092</v>
+        <v>1160192.78392</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>1750194.09414</v>
+        <v>1774587.28531</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>2201566.20365</v>
+        <v>2254094.47545</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>2618459.93708</v>
+        <v>2648241.2232</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>3281354.63313</v>
+        <v>3396245.13615</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>4025179.17666</v>
+        <v>4153128.10893</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>4400815.245479999</v>
+        <v>4705477.40934</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>5480352.483360001</v>
+        <v>5708604.42717</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>9695780.72491</v>
+        <v>9501295.30541</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>9241350.27523</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>9083328.2368</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>7706825.845</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>65419.82378</v>
+        <v>55914.13505</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>79864.08027999999</v>
+        <v>77922.61537999999</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>95680.01473</v>
+        <v>117405.74391</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>81392.52551000001</v>
+        <v>74502.33990000001</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>133950.59372</v>
+        <v>127582.1726</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>114167.66711</v>
+        <v>132077.59809</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>183764.80903</v>
+        <v>201798.5834</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>192766.55244</v>
+        <v>226365.56813</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>259136.31559</v>
+        <v>322024.63625</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>675749.3074800001</v>
+        <v>651388.88159</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>595263.8777</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>574268.2159200001</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>615404.806</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>1744139.66486</v>
+        <v>1866657.41032</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>2770481.847060001</v>
+        <v>2813105.53192</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>3439241.83126</v>
+        <v>3540656.73899</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>3267578.186819999</v>
+        <v>3439284.83831</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>3749674.12829</v>
+        <v>3988717.49039</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>5137406.756</v>
+        <v>5335713.201069999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>5500318.02883</v>
+        <v>5653114.66132</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>5202198.69673</v>
+        <v>5192317.816939999</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>8463522.63876</v>
+        <v>8524382.32652</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>9648092.233520001</v>
+        <v>9368071.71009</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>12533399.25902</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>12512363.38355</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>21936361.393</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>355264.87491</v>
+        <v>362857.40522</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>408323.47163</v>
+        <v>394890.09644</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>488578.71223</v>
+        <v>473194.15279</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>617790.5772000001</v>
+        <v>564697.99439</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>724484.64177</v>
+        <v>790500.67026</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>860478.42677</v>
+        <v>794592.5618200001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1171188.47782</v>
+        <v>1119614.62264</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>1359069.35976</v>
+        <v>1549028.29724</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>1417160.54088</v>
+        <v>1411794.13243</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>1766125.22053</v>
+        <v>1730190.34282</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1998928.28022</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>1810568.75323</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>2373029.45</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>14701.83516</v>
+        <v>17965.7707</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>10008.17507</v>
+        <v>18691.85931</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>15480.04147</v>
+        <v>12298.22804</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>17239.99573</v>
+        <v>14846.80346</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>19786.27254</v>
+        <v>18673.81577</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>28420.71261</v>
+        <v>44407.17757</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>20967.40797</v>
+        <v>23232.45581</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>66295.5555</v>
+        <v>35758.51281</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>24923.52565</v>
+        <v>23389.14738</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>45814.34795</v>
+        <v>41925.75833</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>31453.39751</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>29838.40839</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>43687.085</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>340563.03975</v>
+        <v>344891.63452</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>398315.29656</v>
+        <v>376198.23713</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>473098.67076</v>
+        <v>460895.92475</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>600550.58147</v>
+        <v>549851.1909299999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>704698.3692300001</v>
+        <v>771826.8544900001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>832057.7141600001</v>
+        <v>750185.38425</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1150221.06985</v>
+        <v>1096382.16683</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>1292773.80426</v>
+        <v>1513269.78443</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>1392237.01523</v>
+        <v>1388404.98505</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>1720310.87258</v>
+        <v>1688264.58449</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1967474.88271</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>1780730.34484</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>2329342.365</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>372229.2070700001</v>
+        <v>281423.0232</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>266475.55188</v>
+        <v>252418.24208</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>1985193.58383</v>
+        <v>1899504.50862</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>516705.23352</v>
+        <v>466016.74642</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>580106.2688300001</v>
+        <v>565774.4437599999</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>1055777.90962</v>
+        <v>1130380.60953</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>713225.51711</v>
+        <v>715678.96973</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>2103176.09662</v>
+        <v>2127047.12108</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>954661.91367</v>
+        <v>1022302.67043</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>2619346.5023</v>
+        <v>2149334.44699</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>1593039.23027</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>1607239.11898</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>1601669.141</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>17391.93306</v>
+        <v>16057.98627</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>14021.46177</v>
+        <v>14201.6442</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>13929.35539</v>
+        <v>9310.741629999999</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>14003.35418</v>
+        <v>14417.41341</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>16260.98331</v>
+        <v>21726.07904</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>25808.88988</v>
+        <v>28369.9835</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>31289.02916</v>
+        <v>37450.594</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>28744.10754</v>
+        <v>35338.40405999999</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>23807.73142</v>
+        <v>22424.39868</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>49015.88971</v>
+        <v>39174.53376000001</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>40556.74913</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>44108.19968</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>31784.752</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>23468.60711</v>
+        <v>18901.99763</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>20926.355</v>
+        <v>16531.47123</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>27909.03491</v>
+        <v>60010.59906</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>28083.55447</v>
+        <v>44399.26098000001</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>35445.66125</v>
+        <v>70073.85578999999</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>21013.79401</v>
+        <v>22449.35651</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>32126.04963</v>
+        <v>39853.56319</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>62069.21378999999</v>
+        <v>52243.8798</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>35552.2122</v>
+        <v>33795.31437</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>110001.91979</v>
+        <v>114970.34445</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>74700.34981999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>70965.02622</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>88853.077</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>331368.6669</v>
+        <v>246463.0393</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>231527.73511</v>
+        <v>221685.12665</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>1943355.19353</v>
+        <v>1830183.16793</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>474618.32487</v>
+        <v>407200.07203</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>528399.62427</v>
+        <v>473974.5089300001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>1008955.22573</v>
+        <v>1079561.26952</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>649810.43832</v>
+        <v>638374.81254</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>2012362.77529</v>
+        <v>2039464.83722</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>895301.97005</v>
+        <v>966082.9573799999</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>2460328.6928</v>
+        <v>1995189.56878</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>1477782.13132</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>1492165.89308</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1481031.312</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>1727175.3327</v>
+        <v>1948091.79234</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>2912329.76681</v>
+        <v>2955577.38628</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>1942626.95966</v>
+        <v>2114346.38316</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>3368663.5305</v>
+        <v>3537966.08628</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>3894052.501230001</v>
+        <v>4213443.71689</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>4942107.27315</v>
+        <v>4999925.15336</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>5958280.98954</v>
+        <v>6057050.31423</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>4458091.959869999</v>
+        <v>4614298.993100001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>8926021.265970001</v>
+        <v>8913873.788519999</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>8794870.951749999</v>
+        <v>8948927.60592</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>12939288.30897</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>12715693.0178</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>22707721.702</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>437008.66951</v>
+        <v>436859.78025</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>561295.3701099999</v>
+        <v>562864.6338200001</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>744579.4238799999</v>
+        <v>746339.66554</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>756720.2145</v>
+        <v>766786.82469</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>932437.6604100001</v>
+        <v>928694.8298299999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1111304.07681</v>
+        <v>1106621.10043</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1302120.15693</v>
+        <v>1314969.66858</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1312819.36656</v>
+        <v>1348378.23155</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>1759567.30827</v>
+        <v>1757067.46441</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>2542155.14059</v>
+        <v>2474988.3176</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>2889060.975</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>2856674.73756</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>4606977.682</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>1290166.66319</v>
+        <v>1511232.01209</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>2351034.3967</v>
+        <v>2392712.75246</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>1198047.53578</v>
+        <v>1368006.71762</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>2611943.316</v>
+        <v>2771179.26159</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>2961614.84082</v>
+        <v>3284748.887060001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>3830803.19634</v>
+        <v>3893304.052929999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>4656160.832610001</v>
+        <v>4742080.645649999</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>3145272.593309999</v>
+        <v>3265920.76155</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>7166453.9577</v>
+        <v>7156806.324109999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>6252715.81116</v>
+        <v>6473939.288319999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>10050227.33397</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>9859018.280239997</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>18100744.02</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>6138</v>
+        <v>4896</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>7350</v>
+        <v>6063</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>9135</v>
+        <v>7627</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>10517</v>
+        <v>8765</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>8523</v>
+        <v>7096</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>9976</v>
+        <v>8297</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>11529</v>
+        <v>9375</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>13026</v>
+        <v>10440</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>15383</v>
+        <v>12151</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>6763</v>
+        <v>5633</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>7510</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>6174</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>7502</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>